--- a/src/benchmarking.xlsx
+++ b/src/benchmarking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\GitHub\cs9417\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256DE2C8-8520-4BBC-A418-A173E5856544}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59766B92-34F5-4A11-8E92-32DDA5FF1331}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{EFD9CA6E-104E-4ED9-94EB-F6073527FC27}"/>
   </bookViews>
